--- a/inst/shiny-examples/WDEQtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/WDEQtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/WDEQtools/inst/shiny-examples/WDEQtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1058" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{5D2CB94F-8305-4339-905D-C088D8EE804A}"/>
+  <xr:revisionPtr revIDLastSave="1074" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{A82D9B60-8E7E-41DF-A429-52E6C914CD41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Diatoms" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
   <si>
     <t>Column Name</t>
   </si>
@@ -86,15 +86,9 @@
     <t>real number, in decimal degrees</t>
   </si>
   <si>
-    <t>NAD83 datum</t>
-  </si>
-  <si>
     <t>LONG</t>
   </si>
   <si>
-    <t xml:space="preserve">NAD83 datum. Longitude values in North America (west of the prime meridian) should be negative . </t>
-  </si>
-  <si>
     <t>COLLDATE</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>non-negative real number</t>
   </si>
   <si>
-    <t>Number of individuals.</t>
-  </si>
-  <si>
     <t>EXCLUDE</t>
   </si>
   <si>
@@ -350,9 +341,6 @@
     <t>Statewide</t>
   </si>
   <si>
-    <t>Only one allowable entry (Statewide)</t>
-  </si>
-  <si>
     <t>H_WDEQ</t>
   </si>
   <si>
@@ -386,15 +374,6 @@
     <t>Numeric values that  corresponding to USGS traits: SALINITY_1, SALINITY_2, SALINITY_3, SALINITY_4. USGS Diatom trait - Tolerance to salinity is represented by the categories of fresh to brackish waters (Van Dam et al. 1994). See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/WDEQtools/Reports) for metric descriptions.</t>
   </si>
   <si>
-    <t>Unique site identifier</t>
-  </si>
-  <si>
-    <t>Taxonomic family of taxon</t>
-  </si>
-  <si>
-    <t>Taxonomic order of taxon</t>
-  </si>
-  <si>
     <t>Numeric value 1, 2, 3, 4, 5, 6, or 7</t>
   </si>
   <si>
@@ -419,9 +398,6 @@
     <t>WY_DiatomIBI_2022</t>
   </si>
   <si>
-    <t>Only one allowable entry (WY_DiatomIBI_2022)</t>
-  </si>
-  <si>
     <t>70 (DEC)</t>
   </si>
   <si>
@@ -441,6 +417,48 @@
   </si>
   <si>
     <t>78 (INC)</t>
+  </si>
+  <si>
+    <t>Number of individual valves (not number of taxa).</t>
+  </si>
+  <si>
+    <t>Site position above sea level in feet.</t>
+  </si>
+  <si>
+    <t>Only one allowable entry (WY_DiatomIBI_2022).</t>
+  </si>
+  <si>
+    <t>Only one allowable entry (Statewide).</t>
+  </si>
+  <si>
+    <t>Unique site identifier.</t>
+  </si>
+  <si>
+    <t>Taxonomic order of taxon.</t>
+  </si>
+  <si>
+    <t>Taxonomic family of taxon.</t>
+  </si>
+  <si>
+    <t>NAD83 datum.</t>
+  </si>
+  <si>
+    <t>NAD83 datum. Longitude values in North America (west of the prime meridian) should be negative.</t>
+  </si>
+  <si>
+    <t>Mean % of lithological sulfur (S) content in surface or near surface geology within watershed.</t>
+  </si>
+  <si>
+    <t>PRISM climate data - 30-year normal mean precipitation (mm): Annual period: 1981-2010 within the watershed.</t>
+  </si>
+  <si>
+    <t>PRISM climate data - 30-year normal maximum temperature (°C): Annual period: 1981-2010 within the watershed.</t>
+  </si>
+  <si>
+    <t>PRISM climate data - 30-year normal mean temperature (°C): Annual period: 1981-2010 within the watershed.</t>
+  </si>
+  <si>
+    <t>Mean depth (cm) to bedrock of soils (STATSGO) within watershed.</t>
   </si>
 </sst>
 </file>
@@ -803,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,39 +917,39 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -941,46 +959,46 @@
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -990,12 +1008,12 @@
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -1005,109 +1023,109 @@
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,12 +1142,12 @@
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
@@ -1141,12 +1159,12 @@
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
@@ -1156,12 +1174,12 @@
         <v>7</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>14</v>
@@ -1171,12 +1189,12 @@
         <v>7</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>14</v>
@@ -1186,12 +1204,12 @@
         <v>7</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>14</v>
@@ -1201,12 +1219,12 @@
         <v>7</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>14</v>
@@ -1216,12 +1234,12 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>14</v>
@@ -1231,12 +1249,12 @@
         <v>7</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>14</v>
@@ -1246,12 +1264,12 @@
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>14</v>
@@ -1261,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778C791-9A0C-41F8-B593-6C46134CE190}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1290,39 +1308,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>0.03</v>
@@ -1331,21 +1349,21 @@
         <v>0.63</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>-4.75</v>
@@ -1354,21 +1372,21 @@
         <v>15.91</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>1.1100000000000001</v>
@@ -1377,21 +1395,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>-3.91</v>
@@ -1400,21 +1418,21 @@
         <v>2.41</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>-7.02</v>
@@ -1423,21 +1441,21 @@
         <v>4.54</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>-9.02</v>
@@ -1446,21 +1464,21 @@
         <v>18.010000000000002</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1469,7 +1487,7 @@
         <v>15.73</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1519,12 +1537,12 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -1533,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1559,128 +1577,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/WDEQtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/WDEQtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/WDEQtools/inst/shiny-examples/WDEQtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1074" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{A82D9B60-8E7E-41DF-A429-52E6C914CD41}"/>
+  <xr:revisionPtr revIDLastSave="1075" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3969E4DE-7308-4F86-B7EF-7ECFDA5DFD24}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>Base Flow Index</t>
   </si>
   <si>
-    <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/). Contact Ben Block (Ben.Block@tetratech.com) for help on how to properly associate sites with flowlines.</t>
-  </si>
-  <si>
     <t>% abundance of sensitive biological condition taxa</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>Mean depth (cm) to bedrock of soils (STATSGO) within watershed.</t>
+  </si>
+  <si>
+    <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/). Contact Eric Hargett (eric.hargett@wyo.gov) or Jeremy Zumberge (jeremy.zumberge@wyo.gov) for help on how to properly associate sites with flowlines.</t>
   </si>
 </sst>
 </file>
@@ -859,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,75 +1023,75 @@
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,24 +1108,24 @@
         <v>10</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,12 +1159,12 @@
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
@@ -1174,12 +1174,12 @@
         <v>7</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>14</v>
@@ -1189,12 +1189,12 @@
         <v>7</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>14</v>
@@ -1204,12 +1204,12 @@
         <v>7</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>14</v>
@@ -1219,12 +1219,12 @@
         <v>7</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>14</v>
@@ -1234,12 +1234,12 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>14</v>
@@ -1249,12 +1249,12 @@
         <v>7</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>14</v>
@@ -1264,12 +1264,12 @@
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>14</v>
@@ -1279,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>0.03</v>
@@ -1349,21 +1349,21 @@
         <v>0.63</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>-4.75</v>
@@ -1372,21 +1372,21 @@
         <v>15.91</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>1.1100000000000001</v>
@@ -1395,21 +1395,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>-3.91</v>
@@ -1423,16 +1423,16 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>-7.02</v>
@@ -1441,21 +1441,21 @@
         <v>4.54</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>-9.02</v>
@@ -1464,21 +1464,21 @@
         <v>18.010000000000002</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>15.73</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1586,35 +1586,35 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,83 +1622,83 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
